--- a/src/test/java/com/pack/testData/AddCertifications.xlsx
+++ b/src/test/java/com/pack/testData/AddCertifications.xlsx
@@ -82,33 +82,41 @@
     <t>AutoCert3</t>
   </si>
   <si>
+    <t xml:space="preserve">3/5/22 - 3/18/22
+</t>
+  </si>
+  <si>
+    <t>9:00AM</t>
+  </si>
+  <si>
+    <t>5:00PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Auto Job3
+</t>
+  </si>
+  <si>
+    <t>10:00AM</t>
+  </si>
+  <si>
+    <t>6:00PM</t>
+  </si>
+  <si>
+    <t>11:00AM</t>
+  </si>
+  <si>
+    <t>7:00PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DoubleClick </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">3/5/22 - 3/18/22
 </t>
-  </si>
-  <si>
-    <t>9:00AM</t>
-  </si>
-  <si>
-    <t>5:00PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Auto Job3
-</t>
-  </si>
-  <si>
-    <t>10:00AM</t>
-  </si>
-  <si>
-    <t>6:00PM</t>
-  </si>
-  <si>
-    <t>11:00AM</t>
-  </si>
-  <si>
-    <t>7:00PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DoubleClick </t>
   </si>
 </sst>
 </file>
@@ -492,7 +500,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5" activeCellId="0"/>
+      <selection activeCell="H4" sqref="H4" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -609,7 +617,7 @@
         <v>11</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I3">
         <v>2</v>

--- a/src/test/java/com/pack/testData/AddCertifications.xlsx
+++ b/src/test/java/com/pack/testData/AddCertifications.xlsx
@@ -111,11 +111,7 @@
     <t xml:space="preserve">DoubleClick </t>
   </si>
   <si>
-    <t xml:space="preserve">
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3/5/22 - 3/18/22
+    <t xml:space="preserve">
 </t>
   </si>
 </sst>
@@ -500,7 +496,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4" activeCellId="0"/>
+      <selection activeCell="E6" sqref="E6" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -564,13 +560,13 @@
         <v>10</v>
       </c>
       <c r="C2" s="1">
-        <v>44568</v>
+        <v>44571</v>
       </c>
       <c r="D2" s="1">
-        <v>44599</v>
+        <v>44602</v>
       </c>
       <c r="E2" s="1">
-        <v>44658</v>
+        <v>44661</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
@@ -602,13 +598,13 @@
         <v>10</v>
       </c>
       <c r="C3" s="2">
-        <v>44568</v>
+        <v>44571</v>
       </c>
       <c r="D3" s="3">
-        <v>44599</v>
+        <v>44602</v>
       </c>
       <c r="E3" s="2">
-        <v>44658</v>
+        <v>44661</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>
@@ -617,7 +613,7 @@
         <v>11</v>
       </c>
       <c r="H3" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I3">
         <v>2</v>
@@ -640,13 +636,13 @@
         <v>10</v>
       </c>
       <c r="C4" s="1">
-        <v>44568</v>
+        <v>44571</v>
       </c>
       <c r="D4" s="1">
-        <v>44599</v>
+        <v>44602</v>
       </c>
       <c r="E4" s="1">
-        <v>44658</v>
+        <v>44661</v>
       </c>
       <c r="F4" s="0" t="s">
         <v>11</v>
@@ -678,13 +674,13 @@
         <v>10</v>
       </c>
       <c r="C5" s="4">
-        <v>44568</v>
+        <v>44571</v>
       </c>
       <c r="D5" s="3">
-        <v>44599</v>
+        <v>44602</v>
       </c>
       <c r="E5" s="4">
-        <v>44658</v>
+        <v>44661</v>
       </c>
       <c r="F5" s="0" t="s">
         <v>11</v>

--- a/src/test/java/com/pack/testData/AddCertifications.xlsx
+++ b/src/test/java/com/pack/testData/AddCertifications.xlsx
@@ -113,6 +113,9 @@
   <si>
     <t xml:space="preserve">
 </t>
+  </si>
+  <si>
+    <t>3/19/22 - 4/1/22</t>
   </si>
 </sst>
 </file>
@@ -496,7 +499,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6" activeCellId="0"/>
+      <selection activeCell="H5" sqref="H5" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -560,13 +563,13 @@
         <v>10</v>
       </c>
       <c r="C2" s="1">
-        <v>44571</v>
+        <v>44581</v>
       </c>
       <c r="D2" s="1">
-        <v>44602</v>
+        <v>44612</v>
       </c>
       <c r="E2" s="1">
-        <v>44661</v>
+        <v>44671</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
@@ -575,7 +578,7 @@
         <v>11</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -598,13 +601,13 @@
         <v>10</v>
       </c>
       <c r="C3" s="2">
-        <v>44571</v>
+        <v>44581</v>
       </c>
       <c r="D3" s="3">
-        <v>44602</v>
+        <v>44612</v>
       </c>
       <c r="E3" s="2">
-        <v>44661</v>
+        <v>44671</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>
@@ -613,7 +616,7 @@
         <v>11</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I3">
         <v>2</v>
@@ -636,13 +639,13 @@
         <v>10</v>
       </c>
       <c r="C4" s="1">
-        <v>44571</v>
+        <v>44581</v>
       </c>
       <c r="D4" s="1">
-        <v>44602</v>
+        <v>44612</v>
       </c>
       <c r="E4" s="1">
-        <v>44661</v>
+        <v>44671</v>
       </c>
       <c r="F4" s="0" t="s">
         <v>11</v>
@@ -651,7 +654,7 @@
         <v>11</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I4" s="0">
         <v>3</v>
@@ -674,13 +677,13 @@
         <v>10</v>
       </c>
       <c r="C5" s="4">
-        <v>44571</v>
+        <v>44581</v>
       </c>
       <c r="D5" s="3">
-        <v>44602</v>
+        <v>44612</v>
       </c>
       <c r="E5" s="4">
-        <v>44661</v>
+        <v>44671</v>
       </c>
       <c r="F5" s="0" t="s">
         <v>11</v>
@@ -689,7 +692,7 @@
         <v>11</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I5" s="0">
         <v>4</v>

--- a/src/test/java/com/pack/testData/AddCertifications.xlsx
+++ b/src/test/java/com/pack/testData/AddCertifications.xlsx
@@ -499,7 +499,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5" activeCellId="0"/>
+      <selection activeCell="E7" sqref="E7" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -563,13 +563,13 @@
         <v>10</v>
       </c>
       <c r="C2" s="1">
-        <v>44581</v>
+        <v>44612</v>
       </c>
       <c r="D2" s="1">
-        <v>44612</v>
+        <v>44640</v>
       </c>
       <c r="E2" s="1">
-        <v>44671</v>
+        <v>44701</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
@@ -601,13 +601,13 @@
         <v>10</v>
       </c>
       <c r="C3" s="2">
-        <v>44581</v>
+        <v>44612</v>
       </c>
       <c r="D3" s="3">
-        <v>44612</v>
+        <v>44640</v>
       </c>
       <c r="E3" s="2">
-        <v>44671</v>
+        <v>44701</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>
@@ -639,13 +639,13 @@
         <v>10</v>
       </c>
       <c r="C4" s="1">
-        <v>44581</v>
+        <v>44612</v>
       </c>
       <c r="D4" s="1">
-        <v>44612</v>
+        <v>44640</v>
       </c>
       <c r="E4" s="1">
-        <v>44671</v>
+        <v>44701</v>
       </c>
       <c r="F4" s="0" t="s">
         <v>11</v>
@@ -677,13 +677,13 @@
         <v>10</v>
       </c>
       <c r="C5" s="4">
-        <v>44581</v>
+        <v>44612</v>
       </c>
       <c r="D5" s="3">
-        <v>44612</v>
+        <v>44640</v>
       </c>
       <c r="E5" s="4">
-        <v>44671</v>
+        <v>44701</v>
       </c>
       <c r="F5" s="0" t="s">
         <v>11</v>
